--- a/TuikProject/wwwroot/IssizlikOrani.xlsx
+++ b/TuikProject/wwwroot/IssizlikOrani.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="410">
   <si>
     <t xml:space="preserve">İşsizlik Oranı</t>
   </si>
@@ -59,6 +59,189 @@
     <t xml:space="preserve">Kadın Oran 2020</t>
   </si>
   <si>
+    <t xml:space="preserve">Isteki durum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ucretli veya yevmiyeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68,0239099859353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69,3290504204714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69,1401830710686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69,9833124739257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65,6031128404669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67,8583987809167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isveren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,35302390998594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,52954127115891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,73382700812506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,77805590321235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3674263479711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,72312741765326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kendi hesabina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16,5119549929677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16,0500956437002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,3640851589016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19,3992490613267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,19344080044469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,53358340171141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ucretsiz aile iscisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,1111111111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,0949218609016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,76190476190476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,84459741343346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24,8360200111173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,8966123549408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ekonomik faaliyetler </t>
+  </si>
+  <si>
     <t xml:space="preserve">Tarim</t>
   </si>
   <si>
@@ -98,6 +281,123 @@
     <t xml:space="preserve">25,0380963544719</t>
   </si>
   <si>
+    <t xml:space="preserve">Sanayi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19,5007032348805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19,9119356119392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,8245397511056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,8502294534835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,4635908838244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,5550345797679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insaat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,5309423347398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,27639224744649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,76509307826802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,71923237380058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,711506392440245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,78537099988278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hizmetler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55,6926863572433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55,2892770779947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54,9418903630567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53,8068418856904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57,3096164535853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58,6214980658774</t>
+  </si>
+  <si>
     <t xml:space="preserve">İstihdam edilenlerin sosyal güvenlik kuruluşuna kayıtlılık durumu</t>
   </si>
   <si>
@@ -155,6 +455,265 @@
     <t xml:space="preserve">Oran (%) Kadın Kayıt dışı 2020</t>
   </si>
   <si>
+    <t xml:space="preserve">Toplam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ucretli veya yevmiyeli
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kendi hesab�na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93,5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Toplam(Tarim)</t>
   </si>
   <si>
@@ -294,12 +853,6 @@
   </si>
   <si>
     <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
   </si>
   <si>
     <t xml:space="preserve">57,1</t>
@@ -375,12 +928,6 @@
     <t xml:space="preserve">182</t>
   </si>
   <si>
-    <t xml:space="preserve">94,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93,3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ucretsiz aile iscisi(Tarim)</t>
   </si>
   <si>
@@ -559,9 +1106,6 @@
     <t xml:space="preserve">332</t>
   </si>
   <si>
-    <t xml:space="preserve">29,2</t>
-  </si>
-  <si>
     <t xml:space="preserve">28,0</t>
   </si>
   <si>
@@ -696,9 +1240,6 @@
   </si>
   <si>
     <t xml:space="preserve">212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147</t>
   </si>
   <si>
     <t xml:space="preserve">73,4</t>
@@ -831,673 +1372,1337 @@
         <v>22</v>
       </c>
       <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="J9" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="K9" t="s">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="L9" t="s">
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="M9" t="s">
+      <c r="E10" t="s">
         <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" t="s">
-        <v>41</v>
-      </c>
-      <c r="O16" t="s">
-        <v>42</v>
-      </c>
-      <c r="P16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>44</v>
-      </c>
-      <c r="R16" t="s">
-        <v>45</v>
-      </c>
-      <c r="S16" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="K17" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="M17" t="s">
-        <v>59</v>
-      </c>
-      <c r="N17" t="s">
-        <v>60</v>
-      </c>
-      <c r="O17" t="s">
-        <v>61</v>
-      </c>
-      <c r="P17" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>63</v>
-      </c>
-      <c r="R17" t="s">
-        <v>64</v>
-      </c>
-      <c r="S17" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="I18" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="J18" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="K18" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="L18" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="M18" t="s">
-        <v>78</v>
-      </c>
-      <c r="N18" t="s">
-        <v>79</v>
-      </c>
-      <c r="O18" t="s">
-        <v>80</v>
-      </c>
-      <c r="P18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>82</v>
-      </c>
-      <c r="R18" t="s">
-        <v>83</v>
-      </c>
-      <c r="S18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" t="s">
-        <v>97</v>
-      </c>
-      <c r="N19" t="s">
-        <v>98</v>
-      </c>
-      <c r="O19" t="s">
-        <v>99</v>
-      </c>
-      <c r="P19" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>100</v>
-      </c>
-      <c r="R19" t="s">
-        <v>101</v>
-      </c>
-      <c r="S19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20" t="s">
-        <v>111</v>
-      </c>
-      <c r="J20" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" t="s">
-        <v>114</v>
-      </c>
-      <c r="M20" t="s">
-        <v>115</v>
-      </c>
-      <c r="N20" t="s">
-        <v>116</v>
-      </c>
-      <c r="O20" t="s">
-        <v>117</v>
-      </c>
-      <c r="P20" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>119</v>
-      </c>
-      <c r="R20" t="s">
-        <v>120</v>
-      </c>
-      <c r="S20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" t="s">
         <v>127</v>
-      </c>
-      <c r="G21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" t="s">
-        <v>130</v>
-      </c>
-      <c r="K21" t="s">
-        <v>131</v>
-      </c>
-      <c r="L21" t="s">
-        <v>132</v>
-      </c>
-      <c r="M21" t="s">
-        <v>133</v>
-      </c>
-      <c r="N21" t="s">
-        <v>134</v>
-      </c>
-      <c r="O21" t="s">
-        <v>135</v>
-      </c>
-      <c r="P21" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>137</v>
-      </c>
-      <c r="R21" t="s">
-        <v>138</v>
-      </c>
-      <c r="S21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" t="s">
-        <v>145</v>
-      </c>
-      <c r="H22" t="s">
-        <v>146</v>
-      </c>
-      <c r="I22" t="s">
-        <v>147</v>
-      </c>
-      <c r="J22" t="s">
-        <v>148</v>
-      </c>
-      <c r="K22" t="s">
-        <v>149</v>
-      </c>
-      <c r="L22" t="s">
-        <v>150</v>
-      </c>
-      <c r="M22" t="s">
-        <v>145</v>
-      </c>
-      <c r="N22" t="s">
-        <v>151</v>
-      </c>
-      <c r="O22" t="s">
-        <v>152</v>
-      </c>
-      <c r="P22" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>154</v>
-      </c>
-      <c r="R22" t="s">
-        <v>155</v>
-      </c>
-      <c r="S22" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" t="s">
-        <v>163</v>
-      </c>
-      <c r="H23" t="s">
-        <v>164</v>
-      </c>
-      <c r="I23" t="s">
-        <v>165</v>
-      </c>
-      <c r="J23" t="s">
-        <v>166</v>
-      </c>
-      <c r="K23" t="s">
-        <v>167</v>
-      </c>
-      <c r="L23" t="s">
-        <v>168</v>
-      </c>
-      <c r="M23" t="s">
-        <v>169</v>
-      </c>
-      <c r="N23" t="s">
-        <v>170</v>
-      </c>
-      <c r="O23" t="s">
-        <v>171</v>
-      </c>
-      <c r="P23" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>173</v>
-      </c>
-      <c r="R23" t="s">
-        <v>174</v>
-      </c>
-      <c r="S23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C24" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" t="s">
-        <v>180</v>
-      </c>
-      <c r="F24" t="s">
-        <v>181</v>
-      </c>
-      <c r="G24" t="s">
-        <v>182</v>
-      </c>
-      <c r="H24" t="s">
-        <v>183</v>
-      </c>
-      <c r="I24" t="s">
-        <v>184</v>
-      </c>
-      <c r="J24" t="s">
-        <v>185</v>
-      </c>
-      <c r="K24" t="s">
-        <v>186</v>
-      </c>
-      <c r="L24" t="s">
-        <v>187</v>
-      </c>
-      <c r="M24" t="s">
-        <v>188</v>
-      </c>
-      <c r="N24" t="s">
-        <v>189</v>
-      </c>
-      <c r="O24" t="s">
-        <v>190</v>
-      </c>
-      <c r="P24" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>88</v>
-      </c>
-      <c r="R24" t="s">
-        <v>192</v>
-      </c>
-      <c r="S24" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>194</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="H25" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="I25" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="J25" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="K25" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="L25" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="M25" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="N25" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="O25" t="s">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="Q25" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="R25" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="S25" t="s">
-        <v>211</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" t="s">
+        <v>158</v>
+      </c>
+      <c r="N26" t="s">
+        <v>159</v>
+      </c>
+      <c r="O26" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>162</v>
+      </c>
+      <c r="R26" t="s">
+        <v>163</v>
+      </c>
+      <c r="S26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" t="s">
+        <v>173</v>
+      </c>
+      <c r="J27" t="s">
+        <v>174</v>
+      </c>
+      <c r="K27" t="s">
+        <v>175</v>
+      </c>
+      <c r="L27" t="s">
+        <v>176</v>
+      </c>
+      <c r="M27" t="s">
+        <v>177</v>
+      </c>
+      <c r="N27" t="s">
+        <v>178</v>
+      </c>
+      <c r="O27" t="s">
+        <v>179</v>
+      </c>
+      <c r="P27" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>181</v>
+      </c>
+      <c r="R27" t="s">
+        <v>182</v>
+      </c>
+      <c r="S27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" t="s">
+        <v>189</v>
+      </c>
+      <c r="H28" t="s">
+        <v>190</v>
+      </c>
+      <c r="I28" t="s">
+        <v>191</v>
+      </c>
+      <c r="J28" t="s">
+        <v>192</v>
+      </c>
+      <c r="K28" t="s">
+        <v>193</v>
+      </c>
+      <c r="L28" t="s">
+        <v>194</v>
+      </c>
+      <c r="M28" t="s">
+        <v>195</v>
+      </c>
+      <c r="N28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>197</v>
+      </c>
+      <c r="R28" t="s">
+        <v>198</v>
+      </c>
+      <c r="S28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H29" t="s">
+        <v>207</v>
+      </c>
+      <c r="I29" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" t="s">
+        <v>209</v>
+      </c>
+      <c r="K29" t="s">
+        <v>210</v>
+      </c>
+      <c r="L29" t="s">
+        <v>211</v>
+      </c>
+      <c r="M29" t="s">
         <v>212</v>
       </c>
-      <c r="B26" t="s">
+      <c r="N29" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P29" t="s">
         <v>213</v>
       </c>
-      <c r="C26" t="s">
+      <c r="Q29" t="s">
         <v>214</v>
       </c>
-      <c r="D26" t="s">
+      <c r="R29" t="s">
         <v>215</v>
       </c>
-      <c r="E26" t="s">
+      <c r="S29" t="s">
         <v>216</v>
       </c>
-      <c r="F26" t="s">
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
         <v>217</v>
       </c>
-      <c r="G26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="C30" t="s">
         <v>218</v>
       </c>
-      <c r="I26" t="s">
+      <c r="D30" t="s">
         <v>219</v>
       </c>
-      <c r="J26" t="s">
+      <c r="E30" t="s">
         <v>220</v>
       </c>
-      <c r="K26" t="s">
+      <c r="F30" t="s">
         <v>221</v>
       </c>
-      <c r="L26" t="s">
+      <c r="G30" t="s">
         <v>222</v>
       </c>
-      <c r="M26" t="s">
+      <c r="H30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" t="s">
         <v>223</v>
       </c>
-      <c r="N26" t="s">
+      <c r="K30" t="s">
         <v>224</v>
       </c>
-      <c r="O26" t="s">
+      <c r="L30" t="s">
         <v>225</v>
       </c>
-      <c r="P26" t="s">
+      <c r="M30" t="s">
         <v>226</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="N30" t="s">
         <v>227</v>
       </c>
-      <c r="R26" t="s">
+      <c r="O30" t="s">
         <v>228</v>
       </c>
-      <c r="S26" t="s">
+      <c r="P30" t="s">
         <v>229</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>230</v>
+      </c>
+      <c r="R30" t="s">
+        <v>231</v>
+      </c>
+      <c r="S30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" t="s">
+        <v>239</v>
+      </c>
+      <c r="H31" t="s">
+        <v>240</v>
+      </c>
+      <c r="I31" t="s">
+        <v>241</v>
+      </c>
+      <c r="J31" t="s">
+        <v>242</v>
+      </c>
+      <c r="K31" t="s">
+        <v>243</v>
+      </c>
+      <c r="L31" t="s">
+        <v>244</v>
+      </c>
+      <c r="M31" t="s">
+        <v>245</v>
+      </c>
+      <c r="N31" t="s">
+        <v>246</v>
+      </c>
+      <c r="O31" t="s">
+        <v>247</v>
+      </c>
+      <c r="P31" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>249</v>
+      </c>
+      <c r="R31" t="s">
+        <v>250</v>
+      </c>
+      <c r="S31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" t="s">
+        <v>254</v>
+      </c>
+      <c r="D32" t="s">
+        <v>255</v>
+      </c>
+      <c r="E32" t="s">
+        <v>256</v>
+      </c>
+      <c r="F32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" t="s">
+        <v>258</v>
+      </c>
+      <c r="H32" t="s">
+        <v>259</v>
+      </c>
+      <c r="I32" t="s">
+        <v>260</v>
+      </c>
+      <c r="J32" t="s">
+        <v>261</v>
+      </c>
+      <c r="K32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L32" t="s">
+        <v>263</v>
+      </c>
+      <c r="M32" t="s">
+        <v>264</v>
+      </c>
+      <c r="N32" t="s">
+        <v>265</v>
+      </c>
+      <c r="O32" t="s">
+        <v>266</v>
+      </c>
+      <c r="P32" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>268</v>
+      </c>
+      <c r="R32" t="s">
+        <v>269</v>
+      </c>
+      <c r="S32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>271</v>
+      </c>
+      <c r="B33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E33" t="s">
+        <v>275</v>
+      </c>
+      <c r="F33" t="s">
+        <v>276</v>
+      </c>
+      <c r="G33" t="s">
+        <v>277</v>
+      </c>
+      <c r="H33" t="s">
+        <v>278</v>
+      </c>
+      <c r="I33" t="s">
+        <v>279</v>
+      </c>
+      <c r="J33" t="s">
+        <v>196</v>
+      </c>
+      <c r="K33" t="s">
+        <v>197</v>
+      </c>
+      <c r="L33" t="s">
+        <v>280</v>
+      </c>
+      <c r="M33" t="s">
+        <v>281</v>
+      </c>
+      <c r="N33" t="s">
+        <v>282</v>
+      </c>
+      <c r="O33" t="s">
+        <v>283</v>
+      </c>
+      <c r="P33" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>284</v>
+      </c>
+      <c r="R33" t="s">
+        <v>285</v>
+      </c>
+      <c r="S33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" t="s">
+        <v>288</v>
+      </c>
+      <c r="C34" t="s">
+        <v>289</v>
+      </c>
+      <c r="D34" t="s">
+        <v>290</v>
+      </c>
+      <c r="E34" t="s">
+        <v>291</v>
+      </c>
+      <c r="F34" t="s">
+        <v>292</v>
+      </c>
+      <c r="G34" t="s">
+        <v>293</v>
+      </c>
+      <c r="H34" t="s">
+        <v>294</v>
+      </c>
+      <c r="I34" t="s">
+        <v>295</v>
+      </c>
+      <c r="J34" t="s">
+        <v>296</v>
+      </c>
+      <c r="K34" t="s">
+        <v>297</v>
+      </c>
+      <c r="L34" t="s">
+        <v>298</v>
+      </c>
+      <c r="M34" t="s">
+        <v>299</v>
+      </c>
+      <c r="N34" t="s">
+        <v>300</v>
+      </c>
+      <c r="O34" t="s">
+        <v>301</v>
+      </c>
+      <c r="P34" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>303</v>
+      </c>
+      <c r="R34" t="s">
+        <v>231</v>
+      </c>
+      <c r="S34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>304</v>
+      </c>
+      <c r="B35" t="s">
+        <v>305</v>
+      </c>
+      <c r="C35" t="s">
+        <v>306</v>
+      </c>
+      <c r="D35" t="s">
+        <v>307</v>
+      </c>
+      <c r="E35" t="s">
+        <v>308</v>
+      </c>
+      <c r="F35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" t="s">
+        <v>251</v>
+      </c>
+      <c r="H35" t="s">
+        <v>310</v>
+      </c>
+      <c r="I35" t="s">
+        <v>311</v>
+      </c>
+      <c r="J35" t="s">
+        <v>312</v>
+      </c>
+      <c r="K35" t="s">
+        <v>313</v>
+      </c>
+      <c r="L35" t="s">
+        <v>314</v>
+      </c>
+      <c r="M35" t="s">
+        <v>315</v>
+      </c>
+      <c r="N35" t="s">
+        <v>316</v>
+      </c>
+      <c r="O35" t="s">
+        <v>317</v>
+      </c>
+      <c r="P35" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>319</v>
+      </c>
+      <c r="R35" t="s">
+        <v>320</v>
+      </c>
+      <c r="S35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>321</v>
+      </c>
+      <c r="B36" t="s">
+        <v>322</v>
+      </c>
+      <c r="C36" t="s">
+        <v>323</v>
+      </c>
+      <c r="D36" t="s">
+        <v>324</v>
+      </c>
+      <c r="E36" t="s">
+        <v>325</v>
+      </c>
+      <c r="F36" t="s">
+        <v>326</v>
+      </c>
+      <c r="G36" t="s">
+        <v>327</v>
+      </c>
+      <c r="H36" t="s">
+        <v>328</v>
+      </c>
+      <c r="I36" t="s">
+        <v>329</v>
+      </c>
+      <c r="J36" t="s">
+        <v>330</v>
+      </c>
+      <c r="K36" t="s">
+        <v>331</v>
+      </c>
+      <c r="L36" t="s">
+        <v>332</v>
+      </c>
+      <c r="M36" t="s">
+        <v>327</v>
+      </c>
+      <c r="N36" t="s">
+        <v>333</v>
+      </c>
+      <c r="O36" t="s">
+        <v>334</v>
+      </c>
+      <c r="P36" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>336</v>
+      </c>
+      <c r="R36" t="s">
+        <v>337</v>
+      </c>
+      <c r="S36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>339</v>
+      </c>
+      <c r="B37" t="s">
+        <v>340</v>
+      </c>
+      <c r="C37" t="s">
+        <v>341</v>
+      </c>
+      <c r="D37" t="s">
+        <v>342</v>
+      </c>
+      <c r="E37" t="s">
+        <v>343</v>
+      </c>
+      <c r="F37" t="s">
+        <v>344</v>
+      </c>
+      <c r="G37" t="s">
+        <v>345</v>
+      </c>
+      <c r="H37" t="s">
+        <v>346</v>
+      </c>
+      <c r="I37" t="s">
+        <v>347</v>
+      </c>
+      <c r="J37" t="s">
+        <v>348</v>
+      </c>
+      <c r="K37" t="s">
+        <v>349</v>
+      </c>
+      <c r="L37" t="s">
+        <v>350</v>
+      </c>
+      <c r="M37" t="s">
+        <v>351</v>
+      </c>
+      <c r="N37" t="s">
+        <v>352</v>
+      </c>
+      <c r="O37" t="s">
+        <v>353</v>
+      </c>
+      <c r="P37" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>355</v>
+      </c>
+      <c r="R37" t="s">
+        <v>356</v>
+      </c>
+      <c r="S37" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>358</v>
+      </c>
+      <c r="B38" t="s">
+        <v>359</v>
+      </c>
+      <c r="C38" t="s">
+        <v>360</v>
+      </c>
+      <c r="D38" t="s">
+        <v>361</v>
+      </c>
+      <c r="E38" t="s">
+        <v>362</v>
+      </c>
+      <c r="F38" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" t="s">
+        <v>363</v>
+      </c>
+      <c r="H38" t="s">
+        <v>364</v>
+      </c>
+      <c r="I38" t="s">
+        <v>365</v>
+      </c>
+      <c r="J38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K38" t="s">
+        <v>367</v>
+      </c>
+      <c r="L38" t="s">
+        <v>368</v>
+      </c>
+      <c r="M38" t="s">
+        <v>369</v>
+      </c>
+      <c r="N38" t="s">
+        <v>370</v>
+      </c>
+      <c r="O38" t="s">
+        <v>371</v>
+      </c>
+      <c r="P38" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>274</v>
+      </c>
+      <c r="R38" t="s">
+        <v>373</v>
+      </c>
+      <c r="S38" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>375</v>
+      </c>
+      <c r="B39" t="s">
+        <v>376</v>
+      </c>
+      <c r="C39" t="s">
+        <v>377</v>
+      </c>
+      <c r="D39" t="s">
+        <v>378</v>
+      </c>
+      <c r="E39" t="s">
+        <v>379</v>
+      </c>
+      <c r="F39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G39" t="s">
+        <v>380</v>
+      </c>
+      <c r="H39" t="s">
+        <v>381</v>
+      </c>
+      <c r="I39" t="s">
+        <v>382</v>
+      </c>
+      <c r="J39" t="s">
+        <v>383</v>
+      </c>
+      <c r="K39" t="s">
+        <v>384</v>
+      </c>
+      <c r="L39" t="s">
+        <v>385</v>
+      </c>
+      <c r="M39" t="s">
+        <v>386</v>
+      </c>
+      <c r="N39" t="s">
+        <v>387</v>
+      </c>
+      <c r="O39" t="s">
+        <v>388</v>
+      </c>
+      <c r="P39" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>390</v>
+      </c>
+      <c r="R39" t="s">
+        <v>391</v>
+      </c>
+      <c r="S39" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>393</v>
+      </c>
+      <c r="B40" t="s">
+        <v>394</v>
+      </c>
+      <c r="C40" t="s">
+        <v>395</v>
+      </c>
+      <c r="D40" t="s">
+        <v>396</v>
+      </c>
+      <c r="E40" t="s">
+        <v>397</v>
+      </c>
+      <c r="F40" t="s">
+        <v>398</v>
+      </c>
+      <c r="G40" t="s">
+        <v>263</v>
+      </c>
+      <c r="H40" t="s">
+        <v>399</v>
+      </c>
+      <c r="I40" t="s">
+        <v>400</v>
+      </c>
+      <c r="J40" t="s">
+        <v>401</v>
+      </c>
+      <c r="K40" t="s">
+        <v>402</v>
+      </c>
+      <c r="L40" t="s">
+        <v>403</v>
+      </c>
+      <c r="M40" t="s">
+        <v>404</v>
+      </c>
+      <c r="N40" t="s">
+        <v>405</v>
+      </c>
+      <c r="O40" t="s">
+        <v>406</v>
+      </c>
+      <c r="P40" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>42</v>
+      </c>
+      <c r="R40" t="s">
+        <v>408</v>
+      </c>
+      <c r="S40" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
